--- a/biology/Botanique/Alyssum_cuneifolium/Alyssum_cuneifolium.xlsx
+++ b/biology/Botanique/Alyssum_cuneifolium/Alyssum_cuneifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alyssum cuneifolium, ou alysson à feuilles en coin, est une espèce de plante psammophyte de la famille des Brassicaceae. Cette espèce est menacée et protégée en France. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa description au début du XIXe siècle par Michele Tenore concernait la région de Naples, en Italie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa description au début du XIXe siècle par Michele Tenore concernait la région de Naples, en Italie.
 Alyssum cuneifolium est présente en zone de montagne, dans les Apennins (Italie), dans les Alpes et dans les Pyrénées (France).
-Présente notamment en région Occitanie, on peut la trouver par exemple dans la vallée de la Carança, dans les Pyrénées-Orientales[2].
+Présente notamment en région Occitanie, on peut la trouver par exemple dans la vallée de la Carança, dans les Pyrénées-Orientales.
 </t>
         </is>
       </c>
